--- a/Convos/convos_Guidelines.xlsx
+++ b/Convos/convos_Guidelines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DSSO\AutomatingRequirementChecks\Convos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4816B4-6E28-43E4-B599-2E0FDD14EF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C748E00C-4092-4E82-A408-BEF329F2D66A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{9CF28118-4D81-4FA5-BED1-96EAA5901EBC}"/>
+    <workbookView xWindow="1488" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{9CF28118-4D81-4FA5-BED1-96EAA5901EBC}"/>
   </bookViews>
   <sheets>
     <sheet name="Convos Requirements" sheetId="2" r:id="rId1"/>
@@ -38,12 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
   <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>Shift Type</t>
   </si>
   <si>
     <t>Minimum # of shifts worked to excuse requirement</t>
@@ -121,9 +118,6 @@
     <t>None</t>
   </si>
   <si>
-    <t>DR</t>
-  </si>
-  <si>
     <t>Exception Note (Blank if N/A)</t>
   </si>
   <si>
@@ -142,7 +136,7 @@
     <t xml:space="preserve">   </t>
   </si>
   <si>
-    <t>All SUP</t>
+    <t>Time</t>
   </si>
 </sst>
 </file>
@@ -281,7 +275,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp110.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="K40" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K40" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp111.xml><?xml version="1.0" encoding="utf-8"?>
@@ -465,7 +459,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="C24" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="C24" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp50.xml><?xml version="1.0" encoding="utf-8"?>
@@ -509,7 +503,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="C25" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="C25" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp60.xml><?xml version="1.0" encoding="utf-8"?>
@@ -561,15 +555,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp71.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="C35" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="C35" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp72.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="C36" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="C36" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp73.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="C37" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="C37" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp74.xml><?xml version="1.0" encoding="utf-8"?>
@@ -673,7 +667,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp97.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="H43" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H43" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp98.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10817,8 +10811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C0951A-9348-4E7F-9BF3-340EBDB95AF2}">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10840,70 +10834,73 @@
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="L1" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L2">
         <v>3</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.79166666666666663</v>
       </c>
       <c r="J3" t="s">
         <v>0</v>
@@ -10911,7 +10908,7 @@
     </row>
     <row r="4" spans="1:13" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -10919,7 +10916,7 @@
     <row r="6" spans="1:13" ht="85.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.3">
@@ -10962,7 +10959,7 @@
     </row>
     <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="b">
         <v>0</v>
@@ -10970,7 +10967,7 @@
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
@@ -12389,8 +12386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD00F279-D1BB-4B51-982D-12C68829133E}">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView zoomScale="93" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="G1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12412,51 +12409,48 @@
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="L1" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -12465,14 +12459,11 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
         <v>0</v>
@@ -12480,7 +12471,7 @@
     </row>
     <row r="4" spans="1:13" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -12488,7 +12479,7 @@
     <row r="6" spans="1:13" ht="85.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.3">
@@ -12609,7 +12600,7 @@
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="b">
         <v>1</v>
@@ -12617,12 +12608,12 @@
     </row>
     <row r="36" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="3:11" x14ac:dyDescent="0.3">
@@ -12630,7 +12621,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="3:11" x14ac:dyDescent="0.3">
@@ -12654,7 +12645,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" t="b">
         <v>0</v>
@@ -13969,7 +13960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95512F70-3886-4710-AA32-FAC81B4C6232}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -13985,27 +13976,27 @@
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="M1" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1">
         <v>0.375</v>
@@ -14013,7 +14004,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1">
         <v>0.375</v>
@@ -14024,7 +14015,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
         <v>0.54166666666666663</v>
@@ -14035,7 +14026,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1">
         <v>0.625</v>
@@ -14046,7 +14037,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
         <v>0.8125</v>
